--- a/CASUAL/LA CHO/PAJENAGO, MAIDEN ARCENA.xlsx
+++ b/CASUAL/LA CHO/PAJENAGO, MAIDEN ARCENA.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
   <si>
     <t>PERIOD</t>
   </si>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t>UT(0-0-15)</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -578,32 +581,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1059,7 +1062,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1102,7 +1105,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1166,7 +1169,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1226,7 +1229,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1292,7 +1295,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1355,7 +1358,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1453,7 +1456,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1512,7 +1515,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1577,7 +1580,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1620,7 +1623,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1695,7 +1698,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1881,7 +1884,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1947,7 +1950,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2005,7 +2008,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2071,7 +2074,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2127,7 +2130,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2202,7 +2205,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2245,7 +2248,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2311,7 +2314,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2367,7 +2370,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2465,7 +2468,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2528,7 +2531,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2594,7 +2597,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K83" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K84" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -2972,12 +2975,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K83"/>
+  <dimension ref="A2:K84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A12" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A25" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomLeft" activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3007,14 +3010,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3027,16 +3030,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57">
+      <c r="F3" s="54">
         <v>44564</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3049,16 +3052,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3084,18 +3087,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3142,7 +3145,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>17.886000000000003</v>
+        <v>20.636000000000003</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3152,7 +3155,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>24.917000000000002</v>
+        <v>28.667000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3640,13 +3643,15 @@
         <v>45199</v>
       </c>
       <c r="B33" s="20"/>
-      <c r="C33" s="13"/>
+      <c r="C33" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D33" s="39"/>
       <c r="E33" s="9"/>
       <c r="F33" s="20"/>
-      <c r="G33" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G33" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H33" s="39"/>
       <c r="I33" s="9"/>
@@ -3658,13 +3663,15 @@
         <v>45230</v>
       </c>
       <c r="B34" s="20"/>
-      <c r="C34" s="13"/>
+      <c r="C34" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D34" s="39"/>
       <c r="E34" s="9"/>
       <c r="F34" s="20"/>
-      <c r="G34" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G34" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H34" s="39"/>
       <c r="I34" s="9"/>
@@ -3676,13 +3683,15 @@
         <v>45260</v>
       </c>
       <c r="B35" s="20"/>
-      <c r="C35" s="13"/>
+      <c r="C35" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D35" s="39"/>
       <c r="E35" s="9"/>
       <c r="F35" s="20"/>
-      <c r="G35" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G35" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H35" s="39"/>
       <c r="I35" s="9"/>
@@ -3693,9 +3702,13 @@
       <c r="A36" s="40">
         <v>45291</v>
       </c>
-      <c r="B36" s="20"/>
+      <c r="B36" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C36" s="13"/>
-      <c r="D36" s="39"/>
+      <c r="D36" s="39">
+        <v>1</v>
+      </c>
       <c r="E36" s="9"/>
       <c r="F36" s="20"/>
       <c r="G36" s="13" t="str">
@@ -3705,11 +3718,13 @@
       <c r="H36" s="39"/>
       <c r="I36" s="9"/>
       <c r="J36" s="11"/>
-      <c r="K36" s="20"/>
+      <c r="K36" s="49">
+        <v>45287</v>
+      </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="40">
-        <v>45322</v>
+      <c r="A37" s="48" t="s">
+        <v>53</v>
       </c>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -3727,7 +3742,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
-        <v>45351</v>
+        <v>45322</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -3745,7 +3760,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -3763,7 +3778,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -3781,7 +3796,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
-        <v>45443</v>
+        <v>45412</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -3799,7 +3814,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
-        <v>45473</v>
+        <v>45443</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -3817,7 +3832,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
-        <v>45504</v>
+        <v>45473</v>
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -3835,7 +3850,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
-        <v>45535</v>
+        <v>45504</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -3853,7 +3868,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
-        <v>45565</v>
+        <v>45535</v>
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -3871,7 +3886,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
-        <v>45596</v>
+        <v>45565</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -3888,7 +3903,9 @@
       <c r="K46" s="20"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="40"/>
+      <c r="A47" s="40">
+        <v>45596</v>
+      </c>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
       <c r="D47" s="39"/>
@@ -4464,34 +4481,50 @@
       <c r="K82" s="20"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="41"/>
-      <c r="B83" s="15"/>
-      <c r="C83" s="42"/>
-      <c r="D83" s="43"/>
+      <c r="A83" s="40"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="39"/>
       <c r="E83" s="9"/>
-      <c r="F83" s="15"/>
-      <c r="G83" s="42" t="str">
+      <c r="F83" s="20"/>
+      <c r="G83" s="13" t="str">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H83" s="43"/>
+      <c r="H83" s="39"/>
       <c r="I83" s="9"/>
-      <c r="J83" s="12"/>
-      <c r="K83" s="15"/>
+      <c r="J83" s="11"/>
+      <c r="K83" s="20"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="41"/>
+      <c r="B84" s="15"/>
+      <c r="C84" s="42"/>
+      <c r="D84" s="43"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="42" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H84" s="43"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="12"/>
+      <c r="K84" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -4645,7 +4678,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM('2018 LEAVE CREDITS'!E9,'2018 LEAVE CREDITS'!I9)</f>
-        <v>42.803000000000004</v>
+        <v>49.303000000000004</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
